--- a/Tables/Telework_work_location.xlsx
+++ b/Tables/Telework_work_location.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G296"/>
+  <dimension ref="A1:F292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,17 +380,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>n_obs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>telework_share</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>n_obs</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
         </is>
       </c>
     </row>
@@ -414,13 +409,10 @@
         </is>
       </c>
       <c r="E2">
-        <v>0.211830871066769</v>
+        <v>17665</v>
       </c>
       <c r="F2">
-        <v>83392</v>
-      </c>
-      <c r="G2">
-        <v>4101.639460708015</v>
+        <v>0.214405825648191</v>
       </c>
     </row>
     <row r="3">
@@ -443,13 +435,10 @@
         </is>
       </c>
       <c r="E3">
-        <v>0.2328511432571162</v>
+        <v>499</v>
       </c>
       <c r="F3">
-        <v>2143</v>
-      </c>
-      <c r="G3">
-        <v>106.5736274789087</v>
+        <v>0.2435438588773239</v>
       </c>
     </row>
     <row r="4">
@@ -472,13 +461,10 @@
         </is>
       </c>
       <c r="E4">
-        <v>0.2498390212491951</v>
+        <v>388</v>
       </c>
       <c r="F4">
-        <v>1553</v>
-      </c>
-      <c r="G4">
-        <v>57.37524249684066</v>
+        <v>0.2765883296307285</v>
       </c>
     </row>
     <row r="5">
@@ -501,13 +487,10 @@
         </is>
       </c>
       <c r="E5">
-        <v>0.2161248156187415</v>
+        <v>18022</v>
       </c>
       <c r="F5">
-        <v>83387</v>
-      </c>
-      <c r="G5">
-        <v>4132.85184788052</v>
+        <v>0.2188677965770347</v>
       </c>
     </row>
     <row r="6">
@@ -530,13 +513,10 @@
         </is>
       </c>
       <c r="E6">
-        <v>0.2393617021276596</v>
+        <v>540</v>
       </c>
       <c r="F6">
-        <v>2256</v>
-      </c>
-      <c r="G6">
-        <v>113.3991975300014</v>
+        <v>0.2451938202757111</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +539,10 @@
         </is>
       </c>
       <c r="E7">
-        <v>0.25645872715816</v>
+        <v>407</v>
       </c>
       <c r="F7">
-        <v>1587</v>
-      </c>
-      <c r="G7">
-        <v>61.45012997556478</v>
+        <v>0.2850376795217207</v>
       </c>
     </row>
     <row r="8">
@@ -588,13 +565,10 @@
         </is>
       </c>
       <c r="E8">
-        <v>0.2813756357471543</v>
+        <v>23236</v>
       </c>
       <c r="F8">
-        <v>82580</v>
-      </c>
-      <c r="G8">
-        <v>4076.24543696316</v>
+        <v>0.291614323346941</v>
       </c>
     </row>
     <row r="9">
@@ -617,13 +591,10 @@
         </is>
       </c>
       <c r="E9">
-        <v>0.2815304676428909</v>
+        <v>596</v>
       </c>
       <c r="F9">
-        <v>2117</v>
-      </c>
-      <c r="G9">
-        <v>103.6297423858196</v>
+        <v>0.2965226904384717</v>
       </c>
     </row>
     <row r="10">
@@ -646,13 +617,10 @@
         </is>
       </c>
       <c r="E10">
-        <v>0.3207977207977208</v>
+        <v>563</v>
       </c>
       <c r="F10">
-        <v>1755</v>
-      </c>
-      <c r="G10">
-        <v>63.75549005623907</v>
+        <v>0.3271589239274442</v>
       </c>
     </row>
     <row r="11">
@@ -675,13 +643,10 @@
         </is>
       </c>
       <c r="E11">
-        <v>0.2707711735357112</v>
+        <v>21871</v>
       </c>
       <c r="F11">
-        <v>80773</v>
-      </c>
-      <c r="G11">
-        <v>4090.159139930736</v>
+        <v>0.2831151014022125</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +669,10 @@
         </is>
       </c>
       <c r="E12">
-        <v>0.3347945205479452</v>
+        <v>611</v>
       </c>
       <c r="F12">
-        <v>1825</v>
-      </c>
-      <c r="G12">
-        <v>90.78474008757621</v>
+        <v>0.34677215544416</v>
       </c>
     </row>
     <row r="13">
@@ -733,13 +695,10 @@
         </is>
       </c>
       <c r="E13">
-        <v>0.3698949824970829</v>
+        <v>634</v>
       </c>
       <c r="F13">
-        <v>1714</v>
-      </c>
-      <c r="G13">
-        <v>63.85112997423857</v>
+        <v>0.3793210868439661</v>
       </c>
     </row>
     <row r="14">
@@ -762,13 +721,10 @@
         </is>
       </c>
       <c r="E14">
-        <v>0.2259141253224093</v>
+        <v>2978</v>
       </c>
       <c r="F14">
-        <v>13718</v>
-      </c>
-      <c r="G14">
-        <v>3583.334218543954</v>
+        <v>0.2097847965227496</v>
       </c>
     </row>
     <row r="15">
@@ -791,13 +747,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>0.2618354932557524</v>
+        <v>990</v>
       </c>
       <c r="F15">
-        <v>3916</v>
-      </c>
-      <c r="G15">
-        <v>1013.852300282568</v>
+        <v>0.2532346380983518</v>
       </c>
     </row>
     <row r="16">
@@ -820,13 +773,10 @@
         </is>
       </c>
       <c r="E16">
-        <v>0.2002635046113307</v>
+        <v>152</v>
       </c>
       <c r="F16">
-        <v>784</v>
-      </c>
-      <c r="G16">
-        <v>117.4436297621578</v>
+        <v>0.2241534097382665</v>
       </c>
     </row>
     <row r="17">
@@ -849,13 +799,10 @@
         </is>
       </c>
       <c r="E17">
-        <v>0.2413863682881899</v>
+        <v>3538</v>
       </c>
       <c r="F17">
-        <v>15289</v>
-      </c>
-      <c r="G17">
-        <v>3695.560140438407</v>
+        <v>0.2257013979629393</v>
       </c>
     </row>
     <row r="18">
@@ -878,13 +825,10 @@
         </is>
       </c>
       <c r="E18">
-        <v>0.3035175879396985</v>
+        <v>1208</v>
       </c>
       <c r="F18">
-        <v>4126</v>
-      </c>
-      <c r="G18">
-        <v>985.3688799608499</v>
+        <v>0.2878556909651286</v>
       </c>
     </row>
     <row r="19">
@@ -907,13 +851,10 @@
         </is>
       </c>
       <c r="E19">
-        <v>0.1892816419612315</v>
+        <v>166</v>
       </c>
       <c r="F19">
-        <v>908</v>
-      </c>
-      <c r="G19">
-        <v>113.3279499504715</v>
+        <v>0.2205049148420357</v>
       </c>
     </row>
     <row r="20">
@@ -936,13 +877,10 @@
         </is>
       </c>
       <c r="E20">
-        <v>0.3251000766544587</v>
+        <v>3817</v>
       </c>
       <c r="F20">
-        <v>12793</v>
-      </c>
-      <c r="G20">
-        <v>3685.39606943354</v>
+        <v>0.2873235224259359</v>
       </c>
     </row>
     <row r="21">
@@ -965,13 +903,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>0.4289845758354756</v>
+        <v>1335</v>
       </c>
       <c r="F21">
-        <v>3347</v>
-      </c>
-      <c r="G21">
-        <v>946.8335102945566</v>
+        <v>0.4031421527623466</v>
       </c>
     </row>
     <row r="22">
@@ -994,13 +929,10 @@
         </is>
       </c>
       <c r="E22">
-        <v>0.3551020408163265</v>
+        <v>261</v>
       </c>
       <c r="F22">
-        <v>791</v>
-      </c>
-      <c r="G22">
-        <v>133.2803900837898</v>
+        <v>0.3694306412842682</v>
       </c>
     </row>
     <row r="23">
@@ -1023,13 +955,10 @@
         </is>
       </c>
       <c r="E23">
-        <v>0.364711071901191</v>
+        <v>4134</v>
       </c>
       <c r="F23">
-        <v>12027</v>
-      </c>
-      <c r="G23">
-        <v>3684.335620816797</v>
+        <v>0.3393936735761918</v>
       </c>
     </row>
     <row r="24">
@@ -1052,13 +981,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>0.5382323733862959</v>
+        <v>1626</v>
       </c>
       <c r="F24">
-        <v>3196</v>
-      </c>
-      <c r="G24">
-        <v>994.7715481892228</v>
+        <v>0.5069969533905386</v>
       </c>
     </row>
     <row r="25">
@@ -1081,13 +1007,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>0.4053333333333333</v>
+        <v>304</v>
       </c>
       <c r="F25">
-        <v>763</v>
-      </c>
-      <c r="G25">
-        <v>140.7062780745327</v>
+        <v>0.4322655956774699</v>
       </c>
     </row>
     <row r="26">
@@ -1110,13 +1033,10 @@
         </is>
       </c>
       <c r="E26">
-        <v>0.009276571264202503</v>
+        <v>129</v>
       </c>
       <c r="F26">
-        <v>13906</v>
-      </c>
-      <c r="G26">
-        <v>3026.092492878437</v>
+        <v>0.009191288752882</v>
       </c>
     </row>
     <row r="27">
@@ -1139,13 +1059,10 @@
         </is>
       </c>
       <c r="E27">
-        <v>0.0108695652173913</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>184</v>
-      </c>
-      <c r="G27">
-        <v>38.81938007473946</v>
+        <v>0.01157926771759221</v>
       </c>
     </row>
     <row r="28">
@@ -1168,13 +1085,10 @@
         </is>
       </c>
       <c r="E28">
-        <v>0.007142857142857143</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>280</v>
-      </c>
-      <c r="G28">
-        <v>59.73320987075567</v>
+        <v>0.006415861465384231</v>
       </c>
     </row>
     <row r="29">
@@ -1197,13 +1111,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>0.01063383237722121</v>
+        <v>152</v>
       </c>
       <c r="F29">
-        <v>14294</v>
-      </c>
-      <c r="G29">
-        <v>3111.98286037147</v>
+        <v>0.01126475679096716</v>
       </c>
     </row>
     <row r="30">
@@ -1226,13 +1137,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>0.005847953216374269</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>171</v>
-      </c>
-      <c r="G30">
-        <v>35.80462000519037</v>
+        <v>0.005059682323694316</v>
       </c>
     </row>
     <row r="31">
@@ -1255,13 +1163,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>0.003448275862068965</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>290</v>
-      </c>
-      <c r="G31">
-        <v>61.96849996596575</v>
+        <v>0.00317887311020257</v>
       </c>
     </row>
     <row r="32">
@@ -1284,13 +1189,10 @@
         </is>
       </c>
       <c r="E32">
-        <v>0.02746190144658467</v>
+        <v>355</v>
       </c>
       <c r="F32">
-        <v>12927</v>
-      </c>
-      <c r="G32">
-        <v>3020.453101925552</v>
+        <v>0.03076328852517184</v>
       </c>
     </row>
     <row r="33">
@@ -1313,13 +1215,10 @@
         </is>
       </c>
       <c r="E33">
-        <v>0.02758620689655172</v>
+        <v>4</v>
       </c>
       <c r="F33">
-        <v>145</v>
-      </c>
-      <c r="G33">
-        <v>31.0968100503087</v>
+        <v>0.03269788669050966</v>
       </c>
     </row>
     <row r="34">
@@ -1342,13 +1241,10 @@
         </is>
       </c>
       <c r="E34">
-        <v>0.008547008547008548</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>234</v>
-      </c>
-      <c r="G34">
-        <v>52.72488977015018</v>
+        <v>0.005842591479466223</v>
       </c>
     </row>
     <row r="35">
@@ -1371,13 +1267,10 @@
         </is>
       </c>
       <c r="E35">
-        <v>0.05857937191635994</v>
+        <v>748</v>
       </c>
       <c r="F35">
-        <v>12770</v>
-      </c>
-      <c r="G35">
-        <v>2991.725258730352</v>
+        <v>0.06507895461614377</v>
       </c>
     </row>
     <row r="36">
@@ -1400,13 +1293,10 @@
         </is>
       </c>
       <c r="E36">
-        <v>0.06611570247933884</v>
+        <v>8</v>
       </c>
       <c r="F36">
-        <v>121</v>
-      </c>
-      <c r="G36">
-        <v>28.04509879648685</v>
+        <v>0.1009609346960673</v>
       </c>
     </row>
     <row r="37">
@@ -1429,13 +1319,10 @@
         </is>
       </c>
       <c r="E37">
-        <v>0.005434782608695652</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>184</v>
-      </c>
-      <c r="G37">
-        <v>37.39047095179558</v>
+        <v>0.004915506359130925</v>
       </c>
     </row>
     <row r="38">
@@ -1458,13 +1345,10 @@
         </is>
       </c>
       <c r="E38">
-        <v>0.02065620231087857</v>
+        <v>379</v>
       </c>
       <c r="F38">
-        <v>18348</v>
-      </c>
-      <c r="G38">
-        <v>398.1916398205794</v>
+        <v>0.02190241239042156</v>
       </c>
     </row>
     <row r="39">
@@ -1487,13 +1371,10 @@
         </is>
       </c>
       <c r="E39">
-        <v>0.02695507487520799</v>
+        <v>486</v>
       </c>
       <c r="F39">
-        <v>18030</v>
-      </c>
-      <c r="G39">
-        <v>413.1498950617388</v>
+        <v>0.02615875041423847</v>
       </c>
     </row>
     <row r="40">
@@ -1516,13 +1397,10 @@
         </is>
       </c>
       <c r="E40">
-        <v>0.07701489144026373</v>
+        <v>1355</v>
       </c>
       <c r="F40">
-        <v>17594</v>
-      </c>
-      <c r="G40">
-        <v>415.081017638091</v>
+        <v>0.07373924897041009</v>
       </c>
     </row>
     <row r="41">
@@ -1545,13 +1423,10 @@
         </is>
       </c>
       <c r="E41">
-        <v>0.1247502141021981</v>
+        <v>2185</v>
       </c>
       <c r="F41">
-        <v>17515</v>
-      </c>
-      <c r="G41">
-        <v>427.9919699816965</v>
+        <v>0.1264758316573234</v>
       </c>
     </row>
     <row r="42">
@@ -1565,7 +1440,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1574,13 +1449,10 @@
         </is>
       </c>
       <c r="E42">
-        <v>0.09321079158019567</v>
+        <v>1572</v>
       </c>
       <c r="F42">
-        <v>16865</v>
-      </c>
-      <c r="G42">
-        <v>4908.513039372861</v>
+        <v>0.09684275624695404</v>
       </c>
     </row>
     <row r="43">
@@ -1594,7 +1466,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1603,13 +1475,10 @@
         </is>
       </c>
       <c r="E43">
-        <v>0.09361702127659574</v>
+        <v>88</v>
       </c>
       <c r="F43">
-        <v>940</v>
-      </c>
-      <c r="G43">
-        <v>299.8363004848361</v>
+        <v>0.08942299500941786</v>
       </c>
     </row>
     <row r="44">
@@ -1623,7 +1492,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1632,13 +1501,10 @@
         </is>
       </c>
       <c r="E44">
-        <v>0.004716981132075472</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>212</v>
-      </c>
-      <c r="G44">
-        <v>56.02292992919683</v>
+        <v>0.003724010790727291</v>
       </c>
     </row>
     <row r="45">
@@ -1652,7 +1518,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1661,13 +1527,10 @@
         </is>
       </c>
       <c r="E45">
-        <v>0.09845679012345679</v>
+        <v>1595</v>
       </c>
       <c r="F45">
-        <v>16202</v>
-      </c>
-      <c r="G45">
-        <v>4871.62409260869</v>
+        <v>0.1027320439574095</v>
       </c>
     </row>
     <row r="46">
@@ -1681,7 +1544,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1690,13 +1553,10 @@
         </is>
       </c>
       <c r="E46">
-        <v>0.1088709677419355</v>
+        <v>108</v>
       </c>
       <c r="F46">
-        <v>992</v>
-      </c>
-      <c r="G46">
-        <v>326.8061505332589</v>
+        <v>0.1132048460651404</v>
       </c>
     </row>
     <row r="47">
@@ -1710,7 +1570,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1719,13 +1579,10 @@
         </is>
       </c>
       <c r="E47">
-        <v>0.01915708812260536</v>
+        <v>5</v>
       </c>
       <c r="F47">
-        <v>261</v>
-      </c>
-      <c r="G47">
-        <v>75.13199999928474</v>
+        <v>0.02143161353223214</v>
       </c>
     </row>
     <row r="48">
@@ -1739,7 +1596,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1748,13 +1605,10 @@
         </is>
       </c>
       <c r="E48">
-        <v>0.1237006237006237</v>
+        <v>1785</v>
       </c>
       <c r="F48">
-        <v>14430</v>
-      </c>
-      <c r="G48">
-        <v>4841.463653199375</v>
+        <v>0.1328188942904821</v>
       </c>
     </row>
     <row r="49">
@@ -1768,7 +1622,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1777,13 +1631,10 @@
         </is>
       </c>
       <c r="E49">
-        <v>0.1356968215158924</v>
+        <v>111</v>
       </c>
       <c r="F49">
-        <v>818</v>
-      </c>
-      <c r="G49">
-        <v>301.5358497351408</v>
+        <v>0.1410043615592953</v>
       </c>
     </row>
     <row r="50">
@@ -1797,7 +1648,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1806,13 +1657,10 @@
         </is>
       </c>
       <c r="E50">
-        <v>0.04787234042553191</v>
+        <v>9</v>
       </c>
       <c r="F50">
-        <v>188</v>
-      </c>
-      <c r="G50">
-        <v>65.92559027671814</v>
+        <v>0.05417274218732095</v>
       </c>
     </row>
     <row r="51">
@@ -1826,7 +1674,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1835,13 +1683,10 @@
         </is>
       </c>
       <c r="E51">
-        <v>0.1324923197594614</v>
+        <v>2027</v>
       </c>
       <c r="F51">
-        <v>15299</v>
-      </c>
-      <c r="G51">
-        <v>4827.327550821006</v>
+        <v>0.1446893128145876</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1700,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1864,13 +1709,10 @@
         </is>
       </c>
       <c r="E52">
-        <v>0.1858823529411765</v>
+        <v>158</v>
       </c>
       <c r="F52">
-        <v>850</v>
-      </c>
-      <c r="G52">
-        <v>293.1831422150135</v>
+        <v>0.1846768774228011</v>
       </c>
     </row>
     <row r="53">
@@ -1884,7 +1726,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Czech Republic</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1893,13 +1735,10 @@
         </is>
       </c>
       <c r="E53">
-        <v>0.05</v>
+        <v>12</v>
       </c>
       <c r="F53">
-        <v>240</v>
-      </c>
-      <c r="G53">
-        <v>71.24553427100182</v>
+        <v>0.05641028642628049</v>
       </c>
     </row>
     <row r="54">
@@ -1922,13 +1761,10 @@
         </is>
       </c>
       <c r="E54">
-        <v>0.117237270081989</v>
+        <v>28727</v>
       </c>
       <c r="F54">
-        <v>245226</v>
-      </c>
-      <c r="G54">
-        <v>38819.25476014987</v>
+        <v>0.1152762817139932</v>
       </c>
     </row>
     <row r="55">
@@ -1951,13 +1787,10 @@
         </is>
       </c>
       <c r="E55">
-        <v>0.1544518115084063</v>
+        <v>2609</v>
       </c>
       <c r="F55">
-        <v>16911</v>
-      </c>
-      <c r="G55">
-        <v>2674.160566981882</v>
+        <v>0.151164193294871</v>
       </c>
     </row>
     <row r="56">
@@ -1980,13 +1813,10 @@
         </is>
       </c>
       <c r="E56">
-        <v>0.1831412977562159</v>
+        <v>302</v>
       </c>
       <c r="F56">
-        <v>1653</v>
-      </c>
-      <c r="G56">
-        <v>277.5731851160526</v>
+        <v>0.1766684431969655</v>
       </c>
     </row>
     <row r="57">
@@ -2009,13 +1839,10 @@
         </is>
       </c>
       <c r="E57">
-        <v>0.1264473404863391</v>
+        <v>30971</v>
       </c>
       <c r="F57">
-        <v>245178</v>
-      </c>
-      <c r="G57">
-        <v>38730.09180228948</v>
+        <v>0.1246260876392585</v>
       </c>
     </row>
     <row r="58">
@@ -2038,13 +1865,10 @@
         </is>
       </c>
       <c r="E58">
-        <v>0.1584221331508456</v>
+        <v>3241</v>
       </c>
       <c r="F58">
-        <v>20486</v>
-      </c>
-      <c r="G58">
-        <v>3271.062337221578</v>
+        <v>0.1550558985579587</v>
       </c>
     </row>
     <row r="59">
@@ -2067,13 +1891,10 @@
         </is>
       </c>
       <c r="E59">
-        <v>0.1792565947242206</v>
+        <v>299</v>
       </c>
       <c r="F59">
-        <v>1671</v>
-      </c>
-      <c r="G59">
-        <v>276.7644325867295</v>
+        <v>0.172559890204427</v>
       </c>
     </row>
     <row r="60">
@@ -2096,13 +1917,10 @@
         </is>
       </c>
       <c r="E60">
-        <v>0.1958100379153011</v>
+        <v>12188</v>
       </c>
       <c r="F60">
-        <v>62266</v>
-      </c>
-      <c r="G60">
-        <v>38223.2886142768</v>
+        <v>0.2024771198716937</v>
       </c>
     </row>
     <row r="61">
@@ -2125,13 +1943,10 @@
         </is>
       </c>
       <c r="E61">
-        <v>0.2804221854304636</v>
+        <v>1355</v>
       </c>
       <c r="F61">
-        <v>4840</v>
-      </c>
-      <c r="G61">
-        <v>2868.926990903914</v>
+        <v>0.2838436190724906</v>
       </c>
     </row>
     <row r="62">
@@ -2154,13 +1969,10 @@
         </is>
       </c>
       <c r="E62">
-        <v>0.287280701754386</v>
+        <v>131</v>
       </c>
       <c r="F62">
-        <v>457</v>
-      </c>
-      <c r="G62">
-        <v>240.2813000380993</v>
+        <v>0.3081525279216275</v>
       </c>
     </row>
     <row r="63">
@@ -2183,13 +1995,10 @@
         </is>
       </c>
       <c r="E63">
-        <v>0.2445427013930951</v>
+        <v>20187</v>
       </c>
       <c r="F63">
-        <v>82601</v>
-      </c>
-      <c r="G63">
-        <v>38238.04936834378</v>
+        <v>0.2402171460829604</v>
       </c>
     </row>
     <row r="64">
@@ -2212,13 +2021,10 @@
         </is>
       </c>
       <c r="E64">
-        <v>0.3494946304485155</v>
+        <v>2213</v>
       </c>
       <c r="F64">
-        <v>6336</v>
-      </c>
-      <c r="G64">
-        <v>2844.59515761584</v>
+        <v>0.3405455432496957</v>
       </c>
     </row>
     <row r="65">
@@ -2241,13 +2047,10 @@
         </is>
       </c>
       <c r="E65">
-        <v>0.315359477124183</v>
+        <v>193</v>
       </c>
       <c r="F65">
-        <v>612</v>
-      </c>
-      <c r="G65">
-        <v>253.9404332637787</v>
+        <v>0.2960572410401009</v>
       </c>
     </row>
     <row r="66">
@@ -2270,13 +2073,10 @@
         </is>
       </c>
       <c r="E66">
-        <v>0.2666814946619217</v>
+        <v>11990</v>
       </c>
       <c r="F66">
-        <v>44960</v>
-      </c>
-      <c r="G66">
-        <v>2423.390218859538</v>
+        <v>0.2734079814321408</v>
       </c>
     </row>
     <row r="67">
@@ -2299,13 +2099,10 @@
         </is>
       </c>
       <c r="E67">
-        <v>0.3326667878567533</v>
+        <v>1830</v>
       </c>
       <c r="F67">
-        <v>5501</v>
-      </c>
-      <c r="G67">
-        <v>304.1465699868277</v>
+        <v>0.3290796198313544</v>
       </c>
     </row>
     <row r="68">
@@ -2328,13 +2125,10 @@
         </is>
       </c>
       <c r="E68">
-        <v>0.4285714285714285</v>
+        <v>96</v>
       </c>
       <c r="F68">
-        <v>224</v>
-      </c>
-      <c r="G68">
-        <v>14.17295499704778</v>
+        <v>0.4351183310265345</v>
       </c>
     </row>
     <row r="69">
@@ -2357,13 +2151,10 @@
         </is>
       </c>
       <c r="E69">
-        <v>0.2781862745098039</v>
+        <v>12258</v>
       </c>
       <c r="F69">
-        <v>44064</v>
-      </c>
-      <c r="G69">
-        <v>2447.292659414932</v>
+        <v>0.285196666017805</v>
       </c>
     </row>
     <row r="70">
@@ -2386,13 +2177,10 @@
         </is>
       </c>
       <c r="E70">
-        <v>0.3339157445156281</v>
+        <v>1720</v>
       </c>
       <c r="F70">
-        <v>5151</v>
-      </c>
-      <c r="G70">
-        <v>296.2336699990556</v>
+        <v>0.3299064891814058</v>
       </c>
     </row>
     <row r="71">
@@ -2415,13 +2203,10 @@
         </is>
       </c>
       <c r="E71">
-        <v>0.4007352941176471</v>
+        <v>109</v>
       </c>
       <c r="F71">
-        <v>272</v>
-      </c>
-      <c r="G71">
-        <v>17.75003501027822</v>
+        <v>0.4172574866435352</v>
       </c>
     </row>
     <row r="72">
@@ -2444,13 +2229,10 @@
         </is>
       </c>
       <c r="E72">
-        <v>0.3422732195110711</v>
+        <v>14855</v>
       </c>
       <c r="F72">
-        <v>43401</v>
-      </c>
-      <c r="G72">
-        <v>2455.949947467074</v>
+        <v>0.3506181705261284</v>
       </c>
     </row>
     <row r="73">
@@ -2473,13 +2255,10 @@
         </is>
       </c>
       <c r="E73">
-        <v>0.4204545454545455</v>
+        <v>2072</v>
       </c>
       <c r="F73">
-        <v>4928</v>
-      </c>
-      <c r="G73">
-        <v>290.0516825653613</v>
+        <v>0.4116613684168995</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2281,10 @@
         </is>
       </c>
       <c r="E74">
-        <v>0.5022222222222222</v>
+        <v>113</v>
       </c>
       <c r="F74">
-        <v>225</v>
-      </c>
-      <c r="G74">
-        <v>14.40181748196483</v>
+        <v>0.4995671555903479</v>
       </c>
     </row>
     <row r="75">
@@ -2531,13 +2307,10 @@
         </is>
       </c>
       <c r="E75">
-        <v>0.3543878825733917</v>
+        <v>13617</v>
       </c>
       <c r="F75">
-        <v>38424</v>
-      </c>
-      <c r="G75">
-        <v>2484.150906328112</v>
+        <v>0.3585282515081222</v>
       </c>
     </row>
     <row r="76">
@@ -2560,13 +2333,10 @@
         </is>
       </c>
       <c r="E76">
-        <v>0.438780053428317</v>
+        <v>1971</v>
       </c>
       <c r="F76">
-        <v>4492</v>
-      </c>
-      <c r="G76">
-        <v>300.372871093452</v>
+        <v>0.4248522225762605</v>
       </c>
     </row>
     <row r="77">
@@ -2589,13 +2359,10 @@
         </is>
       </c>
       <c r="E77">
-        <v>0.7101449275362319</v>
+        <v>49</v>
       </c>
       <c r="F77">
-        <v>69</v>
-      </c>
-      <c r="G77">
-        <v>5.455284547060728</v>
+        <v>0.7266868304189044</v>
       </c>
     </row>
     <row r="78">
@@ -2618,13 +2385,10 @@
         </is>
       </c>
       <c r="E78">
-        <v>0.2030975008799718</v>
+        <v>2885</v>
       </c>
       <c r="F78">
-        <v>14205</v>
-      </c>
-      <c r="G78">
-        <v>638.9651125357486</v>
+        <v>0.1955694607215974</v>
       </c>
     </row>
     <row r="79">
@@ -2647,13 +2411,10 @@
         </is>
       </c>
       <c r="E79">
-        <v>0.0582010582010582</v>
+        <v>22</v>
       </c>
       <c r="F79">
-        <v>378</v>
-      </c>
-      <c r="G79">
-        <v>16.62914998736233</v>
+        <v>0.05027316443595088</v>
       </c>
     </row>
     <row r="80">
@@ -2676,13 +2437,10 @@
         </is>
       </c>
       <c r="E80">
-        <v>0.2050606585788562</v>
+        <v>2958</v>
       </c>
       <c r="F80">
-        <v>14425</v>
-      </c>
-      <c r="G80">
-        <v>646.411380354315</v>
+        <v>0.1972940088640016</v>
       </c>
     </row>
     <row r="81">
@@ -2705,13 +2463,10 @@
         </is>
       </c>
       <c r="E81">
-        <v>0.07670454545454546</v>
+        <v>27</v>
       </c>
       <c r="F81">
-        <v>352</v>
-      </c>
-      <c r="G81">
-        <v>15.47754997760057</v>
+        <v>0.08412878628780926</v>
       </c>
     </row>
     <row r="82">
@@ -2734,13 +2489,10 @@
         </is>
       </c>
       <c r="E82">
-        <v>0.2395952782462057</v>
+        <v>3552</v>
       </c>
       <c r="F82">
-        <v>14825</v>
-      </c>
-      <c r="G82">
-        <v>628.1113626547158</v>
+        <v>0.2306101890297236</v>
       </c>
     </row>
     <row r="83">
@@ -2763,13 +2515,10 @@
         </is>
       </c>
       <c r="E83">
-        <v>0.1299019607843137</v>
+        <v>53</v>
       </c>
       <c r="F83">
-        <v>408</v>
-      </c>
-      <c r="G83">
-        <v>18.1396999983117</v>
+        <v>0.1330653198111111</v>
       </c>
     </row>
     <row r="84">
@@ -2792,13 +2541,10 @@
         </is>
       </c>
       <c r="E84">
-        <v>0.2765988266821178</v>
+        <v>3819</v>
       </c>
       <c r="F84">
-        <v>13811</v>
-      </c>
-      <c r="G84">
-        <v>634.3689451767132</v>
+        <v>0.2623037602534372</v>
       </c>
     </row>
     <row r="85">
@@ -2821,13 +2567,10 @@
         </is>
       </c>
       <c r="E85">
-        <v>0.1375661375661376</v>
+        <v>52</v>
       </c>
       <c r="F85">
-        <v>378</v>
-      </c>
-      <c r="G85">
-        <v>18.09584432840347</v>
+        <v>0.1529351188933992</v>
       </c>
     </row>
     <row r="86">
@@ -2850,13 +2593,10 @@
         </is>
       </c>
       <c r="E86">
-        <v>0.04501620583410028</v>
+        <v>3375</v>
       </c>
       <c r="F86">
-        <v>74974</v>
-      </c>
-      <c r="G86">
-        <v>3644.967823323794</v>
+        <v>0.05250821390186503</v>
       </c>
     </row>
     <row r="87">
@@ -2879,18 +2619,15 @@
         </is>
       </c>
       <c r="E87">
-        <v>0.07814761215629522</v>
+        <v>54</v>
       </c>
       <c r="F87">
-        <v>691</v>
-      </c>
-      <c r="G87">
-        <v>42.15663251467049</v>
+        <v>0.07823988287511682</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -2904,17 +2641,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>3242</v>
       </c>
       <c r="F88">
-        <v>12</v>
-      </c>
-      <c r="G88">
-        <v>0.7448350004851818</v>
+        <v>0.05311122669805477</v>
       </c>
     </row>
     <row r="89">
@@ -2933,22 +2667,19 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E89">
-        <v>0.04522816366959166</v>
+        <v>60</v>
       </c>
       <c r="F89">
-        <v>71681</v>
-      </c>
-      <c r="G89">
-        <v>3747.96286045853</v>
+        <v>0.1027451573613789</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -2962,22 +2693,19 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E90">
-        <v>0.1022146507666099</v>
+        <v>5498</v>
       </c>
       <c r="F90">
-        <v>587</v>
-      </c>
-      <c r="G90">
-        <v>38.36601750925183</v>
+        <v>0.1058668560655182</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -2991,17 +2719,14 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F91">
-        <v>16</v>
-      </c>
-      <c r="G91">
-        <v>1.264840006828308</v>
+        <v>0.1912096436243368</v>
       </c>
     </row>
     <row r="92">
@@ -3020,22 +2745,19 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E92">
-        <v>0.0877952190089903</v>
+        <v>2</v>
       </c>
       <c r="F92">
-        <v>62623</v>
-      </c>
-      <c r="G92">
-        <v>3716.345435733907</v>
+        <v>0.4035649759567508</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -3049,22 +2771,19 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E93">
-        <v>0.1743772241992882</v>
+        <v>1065</v>
       </c>
       <c r="F93">
-        <v>562</v>
-      </c>
-      <c r="G93">
-        <v>41.9588800445199</v>
+        <v>0.1484375214704967</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -3078,17 +2797,14 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E94">
-        <v>0.3333333333333333</v>
+        <v>27</v>
       </c>
       <c r="F94">
-        <v>6</v>
-      </c>
-      <c r="G94">
-        <v>0.5119250081479549</v>
+        <v>0.2300144449737234</v>
       </c>
     </row>
     <row r="95">
@@ -3107,75 +2823,66 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E95">
-        <v>0.1284680337756333</v>
+        <v>6</v>
       </c>
       <c r="F95">
-        <v>8324</v>
-      </c>
-      <c r="G95">
-        <v>3748.378209024668</v>
+        <v>0.6256361573853472</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E96">
-        <v>0.226890756302521</v>
+        <v>2818</v>
       </c>
       <c r="F96">
-        <v>119</v>
-      </c>
-      <c r="G96">
-        <v>58.70862905681133</v>
+        <v>0.07421064261711106</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E97">
-        <v>0.4</v>
+        <v>75</v>
       </c>
       <c r="F97">
-        <v>15</v>
-      </c>
-      <c r="G97">
-        <v>7.147287450730801</v>
+        <v>0.06613143171732026</v>
       </c>
     </row>
     <row r="98">
@@ -3194,22 +2901,19 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E98">
-        <v>0.07828865120155577</v>
+        <v>7</v>
       </c>
       <c r="F98">
-        <v>38633</v>
-      </c>
-      <c r="G98">
-        <v>18765.99274235405</v>
+        <v>0.05855674453267792</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3223,22 +2927,19 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E99">
-        <v>0.07804370447450572</v>
+        <v>3186</v>
       </c>
       <c r="F99">
-        <v>1029</v>
-      </c>
-      <c r="G99">
-        <v>397.8738898783922</v>
+        <v>0.0825214207802961</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -3252,17 +2953,14 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E100">
-        <v>0.05343511450381679</v>
+        <v>86</v>
       </c>
       <c r="F100">
-        <v>146</v>
-      </c>
-      <c r="G100">
-        <v>86.80076003074646</v>
+        <v>0.06780194252283828</v>
       </c>
     </row>
     <row r="101">
@@ -3281,22 +2979,19 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E101">
-        <v>0.08731398503658637</v>
+        <v>15</v>
       </c>
       <c r="F101">
-        <v>39682</v>
-      </c>
-      <c r="G101">
-        <v>19211.84178701788</v>
+        <v>0.1913834006590625</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -3310,22 +3005,19 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E102">
-        <v>0.08506429277942631</v>
+        <v>5082</v>
       </c>
       <c r="F102">
-        <v>1122</v>
-      </c>
-      <c r="G102">
-        <v>423.7995097339153</v>
+        <v>0.1482257828071737</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -3339,17 +3031,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E103">
-        <v>0.1485148514851485</v>
+        <v>197</v>
       </c>
       <c r="F103">
-        <v>120</v>
-      </c>
-      <c r="G103">
-        <v>67.24323960393667</v>
+        <v>0.1951570515637105</v>
       </c>
     </row>
     <row r="104">
@@ -3368,22 +3057,19 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E104">
-        <v>0.1419354838709677</v>
+        <v>19</v>
       </c>
       <c r="F104">
-        <v>37233</v>
-      </c>
-      <c r="G104">
-        <v>18680.97147519141</v>
+        <v>0.253081530926807</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -3397,22 +3083,19 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E105">
-        <v>0.2058516196447231</v>
+        <v>4864</v>
       </c>
       <c r="F105">
-        <v>1001</v>
-      </c>
-      <c r="G105">
-        <v>385.3008098378778</v>
+        <v>0.151728237192667</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -3426,17 +3109,14 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E106">
-        <v>0.1809523809523809</v>
+        <v>229</v>
       </c>
       <c r="F106">
-        <v>115</v>
-      </c>
-      <c r="G106">
-        <v>62.65471015870571</v>
+        <v>0.1926851990055508</v>
       </c>
     </row>
     <row r="107">
@@ -3455,75 +3135,66 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E107">
-        <v>0.1373041637261821</v>
+        <v>28</v>
       </c>
       <c r="F107">
-        <v>35689</v>
-      </c>
-      <c r="G107">
-        <v>19115.4054330308</v>
+        <v>0.2172020952847371</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E108">
-        <v>0.1965665236051502</v>
+        <v>3269</v>
       </c>
       <c r="F108">
-        <v>1180</v>
-      </c>
-      <c r="G108">
-        <v>487.410089166835</v>
+        <v>0.3023624795091361</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E109">
-        <v>0.2745098039215687</v>
+        <v>189</v>
       </c>
       <c r="F109">
-        <v>103</v>
-      </c>
-      <c r="G109">
-        <v>85.19439020752907</v>
+        <v>0.3490336621240042</v>
       </c>
     </row>
     <row r="110">
@@ -3542,22 +3213,19 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E110">
-        <v>0.3060574852541897</v>
+        <v>6</v>
       </c>
       <c r="F110">
-        <v>10790</v>
-      </c>
-      <c r="G110">
-        <v>2405.572911564261</v>
+        <v>0.5004885821670895</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -3571,22 +3239,19 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E111">
-        <v>0.3698630136986301</v>
+        <v>3397</v>
       </c>
       <c r="F111">
-        <v>520</v>
-      </c>
-      <c r="G111">
-        <v>118.118120148778</v>
+        <v>0.3159361026251385</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -3600,17 +3265,14 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E112">
-        <v>0.4285714285714285</v>
+        <v>208</v>
       </c>
       <c r="F112">
-        <v>14</v>
-      </c>
-      <c r="G112">
-        <v>3.16219000518322</v>
+        <v>0.3913488350156795</v>
       </c>
     </row>
     <row r="113">
@@ -3629,22 +3291,19 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E113">
-        <v>0.3194170192759755</v>
+        <v>4</v>
       </c>
       <c r="F113">
-        <v>10658</v>
-      </c>
-      <c r="G113">
-        <v>2430.838592264801</v>
+        <v>0.4348529680107742</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -3658,22 +3317,19 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E114">
-        <v>0.3992322456813819</v>
+        <v>4041</v>
       </c>
       <c r="F114">
-        <v>522</v>
-      </c>
-      <c r="G114">
-        <v>123.9747397452593</v>
+        <v>0.388595873430526</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -3687,17 +3343,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E115">
-        <v>0.3333333333333333</v>
+        <v>259</v>
       </c>
       <c r="F115">
-        <v>12</v>
-      </c>
-      <c r="G115">
-        <v>2.311080001294613</v>
+        <v>0.4860954435688917</v>
       </c>
     </row>
     <row r="116">
@@ -3716,22 +3369,19 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E116">
-        <v>0.3932846715328467</v>
+        <v>6</v>
       </c>
       <c r="F116">
-        <v>10293</v>
-      </c>
-      <c r="G116">
-        <v>2391.454956691712</v>
+        <v>0.4636786700214862</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -3745,22 +3395,19 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E117">
-        <v>0.5048732943469786</v>
+        <v>4288</v>
       </c>
       <c r="F117">
-        <v>513</v>
-      </c>
-      <c r="G117">
-        <v>125.1075499877334</v>
+        <v>0.4072882065716028</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -3774,17 +3421,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E118">
-        <v>0.4615384615384616</v>
+        <v>292</v>
       </c>
       <c r="F118">
-        <v>13</v>
-      </c>
-      <c r="G118">
-        <v>2.653949990868568</v>
+        <v>0.5172323290148739</v>
       </c>
     </row>
     <row r="119">
@@ -3803,75 +3447,66 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E119">
-        <v>0.4401108488145335</v>
+        <v>8</v>
       </c>
       <c r="F119">
-        <v>9762</v>
-      </c>
-      <c r="G119">
-        <v>2419.582609400153</v>
+        <v>0.5723368667021189</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E120">
-        <v>0.5604606525911708</v>
+        <v>13074</v>
       </c>
       <c r="F120">
-        <v>522</v>
-      </c>
-      <c r="G120">
-        <v>131.3531947024167</v>
+        <v>0.2050656796429148</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>France</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E121">
-        <v>0.4444444444444444</v>
+        <v>1123</v>
       </c>
       <c r="F121">
-        <v>18</v>
-      </c>
-      <c r="G121">
-        <v>4.118360586464405</v>
+        <v>0.3083329340026021</v>
       </c>
     </row>
     <row r="122">
@@ -3890,22 +3525,19 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E122">
-        <v>0.1955692510209271</v>
+        <v>170</v>
       </c>
       <c r="F122">
-        <v>182332</v>
-      </c>
-      <c r="G122">
-        <v>25137.59255864099</v>
+        <v>0.1339269886808651</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -3919,22 +3551,19 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E123">
-        <v>0.287948717948718</v>
+        <v>14170</v>
       </c>
       <c r="F123">
-        <v>10629</v>
-      </c>
-      <c r="G123">
-        <v>1451.827620718628</v>
+        <v>0.2251479146052397</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -3948,17 +3577,14 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E124">
-        <v>0.1385493072534637</v>
+        <v>1122</v>
       </c>
       <c r="F124">
-        <v>3175</v>
-      </c>
-      <c r="G124">
-        <v>452.4164289683104</v>
+        <v>0.3482717668997972</v>
       </c>
     </row>
     <row r="125">
@@ -3977,22 +3603,19 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E125">
-        <v>0.2137158197969926</v>
+        <v>178</v>
       </c>
       <c r="F125">
-        <v>179054</v>
-      </c>
-      <c r="G125">
-        <v>25210.01361307874</v>
+        <v>0.1655863712112939</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -4006,22 +3629,19 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E126">
-        <v>0.2964332892998679</v>
+        <v>11520</v>
       </c>
       <c r="F126">
-        <v>10052</v>
-      </c>
-      <c r="G126">
-        <v>1359.891139421612</v>
+        <v>0.2881620759522318</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -4035,17 +3655,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E127">
-        <v>0.1529209621993127</v>
+        <v>890</v>
       </c>
       <c r="F127">
-        <v>3137</v>
-      </c>
-      <c r="G127">
-        <v>482.8387700766325</v>
+        <v>0.4216397786551178</v>
       </c>
     </row>
     <row r="128">
@@ -4064,22 +3681,19 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E128">
-        <v>0.268562769553561</v>
+        <v>183</v>
       </c>
       <c r="F128">
-        <v>42913</v>
-      </c>
-      <c r="G128">
-        <v>25005.25707231928</v>
+        <v>0.2921072865949775</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -4093,22 +3707,19 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E129">
-        <v>0.379045996592845</v>
+        <v>7886</v>
       </c>
       <c r="F129">
-        <v>2364</v>
-      </c>
-      <c r="G129">
-        <v>1440.730481557548</v>
+        <v>0.339131922580385</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -4122,17 +3733,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E130">
-        <v>0.2325285895806861</v>
+        <v>806</v>
       </c>
       <c r="F130">
-        <v>787</v>
-      </c>
-      <c r="G130">
-        <v>483.165519669652</v>
+        <v>0.3972705546131073</v>
       </c>
     </row>
     <row r="131">
@@ -4151,75 +3759,66 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E131">
-        <v>0.3326022775200337</v>
+        <v>139</v>
       </c>
       <c r="F131">
-        <v>23727</v>
-      </c>
-      <c r="G131">
-        <v>24879.40066865087</v>
+        <v>0.348160714599871</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E132">
-        <v>0.3931707317073171</v>
+        <v>792</v>
       </c>
       <c r="F132">
-        <v>2059</v>
-      </c>
-      <c r="G132">
-        <v>2175.278326176107</v>
+        <v>0.07063828018442084</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E133">
-        <v>0.3432098765432099</v>
+        <v>5</v>
       </c>
       <c r="F133">
-        <v>405</v>
-      </c>
-      <c r="G133">
-        <v>413.165419280529</v>
+        <v>0.05396520359047458</v>
       </c>
     </row>
     <row r="134">
@@ -4238,22 +3837,19 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E134">
-        <v>0.06343104276790004</v>
+        <v>8</v>
       </c>
       <c r="F134">
-        <v>12486</v>
-      </c>
-      <c r="G134">
-        <v>1572.511175110005</v>
+        <v>0.03118931221366225</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4267,22 +3863,19 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E135">
-        <v>0.03333333333333333</v>
+        <v>738</v>
       </c>
       <c r="F135">
-        <v>150</v>
-      </c>
-      <c r="G135">
-        <v>16.22902247682214</v>
+        <v>0.07291496130503022</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -4296,17 +3889,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E136">
-        <v>0.02144772117962467</v>
+        <v>4</v>
       </c>
       <c r="F136">
-        <v>373</v>
-      </c>
-      <c r="G136">
-        <v>43.16061746887863</v>
+        <v>0.04108816928764886</v>
       </c>
     </row>
     <row r="137">
@@ -4325,22 +3915,19 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E137">
-        <v>0.06146414591488299</v>
+        <v>8</v>
       </c>
       <c r="F137">
-        <v>12007</v>
-      </c>
-      <c r="G137">
-        <v>1604.208970224485</v>
+        <v>0.02850449265950715</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -4354,22 +3941,19 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E138">
-        <v>0.03478260869565217</v>
+        <v>1093</v>
       </c>
       <c r="F138">
-        <v>115</v>
-      </c>
-      <c r="G138">
-        <v>12.53335246816278</v>
+        <v>0.1134894997878709</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -4383,17 +3967,14 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E139">
-        <v>0.02476780185758514</v>
+        <v>9</v>
       </c>
       <c r="F139">
-        <v>323</v>
-      </c>
-      <c r="G139">
-        <v>39.49096750840545</v>
+        <v>0.1315336219462311</v>
       </c>
     </row>
     <row r="140">
@@ -4412,22 +3993,19 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E140">
-        <v>0.09386808656818962</v>
+        <v>14</v>
       </c>
       <c r="F140">
-        <v>11644</v>
-      </c>
-      <c r="G140">
-        <v>1581.06635804195</v>
+        <v>0.05949840208030188</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -4441,22 +4019,19 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E141">
-        <v>0.08108108108108109</v>
+        <v>1421</v>
       </c>
       <c r="F141">
-        <v>111</v>
-      </c>
-      <c r="G141">
-        <v>13.97530497610569</v>
+        <v>0.1373977482457468</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -4470,17 +4045,14 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E142">
-        <v>0.04011461318051576</v>
+        <v>131</v>
       </c>
       <c r="F142">
-        <v>349</v>
-      </c>
-      <c r="G142">
-        <v>42.32214488834143</v>
+        <v>0.1517514858068588</v>
       </c>
     </row>
     <row r="143">
@@ -4499,75 +4071,66 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E143">
-        <v>0.1161706998037933</v>
+        <v>20</v>
       </c>
       <c r="F143">
-        <v>12236</v>
-      </c>
-      <c r="G143">
-        <v>1500.073423815891</v>
+        <v>0.05104673122732362</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E144">
-        <v>0.1342213114754098</v>
+        <v>3524</v>
       </c>
       <c r="F144">
-        <v>976</v>
-      </c>
-      <c r="G144">
-        <v>109.0658644577488</v>
+        <v>0.06312168616119736</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E145">
-        <v>0.05405405405405406</v>
+        <v>404</v>
       </c>
       <c r="F145">
-        <v>370</v>
-      </c>
-      <c r="G145">
-        <v>41.91060705762357</v>
+        <v>0.05966363815997987</v>
       </c>
     </row>
     <row r="146">
@@ -4586,22 +4149,19 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E146">
-        <v>0.04540300968872397</v>
+        <v>27</v>
       </c>
       <c r="F146">
-        <v>77616</v>
-      </c>
-      <c r="G146">
-        <v>3869.870521631557</v>
+        <v>0.01620246201979484</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4615,22 +4175,19 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E147">
-        <v>0.04761904761904762</v>
+        <v>2194</v>
       </c>
       <c r="F147">
-        <v>8484</v>
-      </c>
-      <c r="G147">
-        <v>484.9314999347553</v>
+        <v>0.04691988910600452</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4644,17 +4201,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E148">
-        <v>0.01098454027664768</v>
+        <v>335</v>
       </c>
       <c r="F148">
-        <v>2458</v>
-      </c>
-      <c r="G148">
-        <v>104.4486325872131</v>
+        <v>0.05237270239347231</v>
       </c>
     </row>
     <row r="149">
@@ -4673,22 +4227,19 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E149">
-        <v>0.02961343267465717</v>
+        <v>24</v>
       </c>
       <c r="F149">
-        <v>74088</v>
-      </c>
-      <c r="G149">
-        <v>3864.032360419631</v>
+        <v>0.0223994339890709</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -4702,22 +4253,19 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E150">
-        <v>0.03957004488542405</v>
+        <v>4687</v>
       </c>
       <c r="F150">
-        <v>8466</v>
-      </c>
-      <c r="G150">
-        <v>523.4312672941014</v>
+        <v>0.1099995264696634</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -4731,17 +4279,14 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E151">
-        <v>0.009913258983890954</v>
+        <v>818</v>
       </c>
       <c r="F151">
-        <v>2421</v>
-      </c>
-      <c r="G151">
-        <v>115.6745750913396</v>
+        <v>0.1345904836206265</v>
       </c>
     </row>
     <row r="152">
@@ -4760,22 +4305,19 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E152">
-        <v>0.06641726537148039</v>
+        <v>44</v>
       </c>
       <c r="F152">
-        <v>70569</v>
-      </c>
-      <c r="G152">
-        <v>3838.131914352067</v>
+        <v>0.0425517416231916</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -4789,22 +4331,19 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E153">
-        <v>0.09653056407835733</v>
+        <v>7354</v>
       </c>
       <c r="F153">
-        <v>8474</v>
-      </c>
-      <c r="G153">
-        <v>512.6433397643268</v>
+        <v>0.1343672828571831</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -4818,17 +4357,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E154">
-        <v>0.02119460500963391</v>
+        <v>1259</v>
       </c>
       <c r="F154">
-        <v>2076</v>
-      </c>
-      <c r="G154">
-        <v>99.81783006899059</v>
+        <v>0.1546139734372718</v>
       </c>
     </row>
     <row r="155">
@@ -4847,75 +4383,66 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E155">
-        <v>0.08691746740890449</v>
+        <v>51</v>
       </c>
       <c r="F155">
-        <v>84609</v>
-      </c>
-      <c r="G155">
-        <v>4001.940338570625</v>
+        <v>0.05256000606494251</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E156">
-        <v>0.1230453479280688</v>
+        <v>11696</v>
       </c>
       <c r="F156">
-        <v>10232</v>
-      </c>
-      <c r="G156">
-        <v>546.2552688699216</v>
+        <v>0.1952300955317948</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E157">
-        <v>0.0276273022751896</v>
+        <v>918</v>
       </c>
       <c r="F157">
-        <v>1846</v>
-      </c>
-      <c r="G157">
-        <v>80.31424874532968</v>
+        <v>0.2312901696843329</v>
       </c>
     </row>
     <row r="158">
@@ -4934,22 +4461,19 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E158">
-        <v>0.2059082426675117</v>
+        <v>47</v>
       </c>
       <c r="F158">
-        <v>56865</v>
-      </c>
-      <c r="G158">
-        <v>2084.800546162762</v>
+        <v>0.1613052732302769</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4963,22 +4487,19 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E159">
-        <v>0.2418335089567966</v>
+        <v>12414</v>
       </c>
       <c r="F159">
-        <v>3808</v>
-      </c>
-      <c r="G159">
-        <v>143.1453724261373</v>
+        <v>0.1982917051037837</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -4992,17 +4513,14 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E160">
-        <v>0.1654929577464789</v>
+        <v>1081</v>
       </c>
       <c r="F160">
-        <v>284</v>
-      </c>
-      <c r="G160">
-        <v>10.46455249190331</v>
+        <v>0.2553539797721481</v>
       </c>
     </row>
     <row r="161">
@@ -5021,22 +4539,19 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E161">
-        <v>0.2081558737717563</v>
+        <v>48</v>
       </c>
       <c r="F161">
-        <v>59711</v>
-      </c>
-      <c r="G161">
-        <v>2144.025504135527</v>
+        <v>0.1823781889066653</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -5050,22 +4565,19 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E162">
-        <v>0.2656019656019656</v>
+        <v>16379</v>
       </c>
       <c r="F162">
-        <v>4083</v>
-      </c>
-      <c r="G162">
-        <v>151.2665675347671</v>
+        <v>0.3173477353631393</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -5079,17 +4591,14 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E163">
-        <v>0.1726618705035971</v>
+        <v>1378</v>
       </c>
       <c r="F163">
-        <v>278</v>
-      </c>
-      <c r="G163">
-        <v>10.30223248526454</v>
+        <v>0.3683955431564519</v>
       </c>
     </row>
     <row r="164">
@@ -5108,22 +4617,19 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E164">
-        <v>0.3282035868149484</v>
+        <v>66</v>
       </c>
       <c r="F164">
-        <v>50013</v>
-      </c>
-      <c r="G164">
-        <v>2108.794315185398</v>
+        <v>0.2675786783091361</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -5137,22 +4643,19 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E165">
-        <v>0.3864273696017947</v>
+        <v>3723</v>
       </c>
       <c r="F165">
-        <v>3576</v>
-      </c>
-      <c r="G165">
-        <v>158.2690700497478</v>
+        <v>0.3885628259664728</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -5166,17 +4669,14 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E166">
-        <v>0.2907488986784141</v>
+        <v>216</v>
       </c>
       <c r="F166">
-        <v>229</v>
-      </c>
-      <c r="G166">
-        <v>9.649899980053306</v>
+        <v>0.4712461592273246</v>
       </c>
     </row>
     <row r="167">
@@ -5195,75 +4695,66 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E167">
-        <v>0.4099317330984364</v>
+        <v>24</v>
       </c>
       <c r="F167">
-        <v>9123</v>
-      </c>
-      <c r="G167">
-        <v>2244.244831889868</v>
+        <v>0.4889095630250299</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E168">
-        <v>0.4988452655889146</v>
+        <v>9245</v>
       </c>
       <c r="F168">
-        <v>436</v>
-      </c>
-      <c r="G168">
-        <v>113.0473028421402</v>
+        <v>0.04890420819037126</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E169">
-        <v>0.5106382978723404</v>
+        <v>281</v>
       </c>
       <c r="F169">
-        <v>47</v>
-      </c>
-      <c r="G169">
-        <v>11.61120247840881</v>
+        <v>0.04901427306066745</v>
       </c>
     </row>
     <row r="170">
@@ -5282,22 +4773,19 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E170">
-        <v>0.04795199095421609</v>
+        <v>49</v>
       </c>
       <c r="F170">
-        <v>193038</v>
-      </c>
-      <c r="G170">
-        <v>22181.04054985847</v>
+        <v>0.04043748127024684</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -5311,22 +4799,19 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E171">
-        <v>0.04778911564625851</v>
+        <v>8862</v>
       </c>
       <c r="F171">
-        <v>5908</v>
-      </c>
-      <c r="G171">
-        <v>622.290674675256</v>
+        <v>0.04726030992310253</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -5340,17 +4825,14 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E172">
-        <v>0.04096989966555184</v>
+        <v>316</v>
       </c>
       <c r="F172">
-        <v>1209</v>
-      </c>
-      <c r="G172">
-        <v>130.8124249707907</v>
+        <v>0.05704296287690183</v>
       </c>
     </row>
     <row r="173">
@@ -5369,22 +4851,19 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E173">
-        <v>0.04628522184211214</v>
+        <v>52</v>
       </c>
       <c r="F173">
-        <v>191709</v>
-      </c>
-      <c r="G173">
-        <v>22283.41395136085</v>
+        <v>0.04624401967354077</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -5398,22 +4877,19 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E174">
-        <v>0.05265789035160807</v>
+        <v>23328</v>
       </c>
       <c r="F174">
-        <v>6018</v>
-      </c>
-      <c r="G174">
-        <v>642.3873000708409</v>
+        <v>0.1360649440253342</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -5427,17 +4903,14 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E175">
-        <v>0.04193548387096774</v>
+        <v>1097</v>
       </c>
       <c r="F175">
-        <v>1247</v>
-      </c>
-      <c r="G175">
-        <v>134.966100186808</v>
+        <v>0.1891706954907516</v>
       </c>
     </row>
     <row r="176">
@@ -5456,22 +4929,19 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E176">
-        <v>0.1313018174449954</v>
+        <v>133</v>
       </c>
       <c r="F176">
-        <v>177895</v>
-      </c>
-      <c r="G176">
-        <v>21865.26512429188</v>
+        <v>0.1371857701312035</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -5485,22 +4955,19 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E177">
-        <v>0.1886176066024759</v>
+        <v>24652</v>
       </c>
       <c r="F177">
-        <v>5832</v>
-      </c>
-      <c r="G177">
-        <v>641.01577478135</v>
+        <v>0.14703165984164</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -5514,17 +4981,14 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E178">
-        <v>0.1314229249011858</v>
+        <v>1285</v>
       </c>
       <c r="F178">
-        <v>1018</v>
-      </c>
-      <c r="G178">
-        <v>128.0868998575024</v>
+        <v>0.2098006600308534</v>
       </c>
     </row>
     <row r="179">
@@ -5543,75 +5007,66 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E179">
-        <v>0.1427628302389418</v>
+        <v>167</v>
       </c>
       <c r="F179">
-        <v>173018</v>
-      </c>
-      <c r="G179">
-        <v>21522.03854559339</v>
+        <v>0.1511831275670989</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E180">
-        <v>0.2135970744680851</v>
+        <v>1260</v>
       </c>
       <c r="F180">
-        <v>6044</v>
-      </c>
-      <c r="G180">
-        <v>673.3816998810507</v>
+        <v>0.04953127028041725</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E181">
-        <v>0.1575471698113207</v>
+        <v>64</v>
       </c>
       <c r="F181">
-        <v>1062</v>
-      </c>
-      <c r="G181">
-        <v>133.6088250721805</v>
+        <v>0.02216923595292555</v>
       </c>
     </row>
     <row r="182">
@@ -5630,22 +5085,19 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E182">
-        <v>0.0457981971503344</v>
+        <v>6</v>
       </c>
       <c r="F182">
-        <v>27512</v>
-      </c>
-      <c r="G182">
-        <v>1216.361092949577</v>
+        <v>0.06318059365778109</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -5659,22 +5111,19 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E183">
-        <v>0.02068519715578539</v>
+        <v>1229</v>
       </c>
       <c r="F183">
-        <v>3094</v>
-      </c>
-      <c r="G183">
-        <v>140.3561000002082</v>
+        <v>0.04933706746139468</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -5688,22 +5137,19 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E184">
-        <v>0.03973509933774835</v>
+        <v>61</v>
       </c>
       <c r="F184">
-        <v>151</v>
-      </c>
-      <c r="G184">
-        <v>7.788467483595014</v>
+        <v>0.02084935861999315</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -5721,18 +5167,15 @@
         </is>
       </c>
       <c r="E185">
-        <v>0.04685831935336282</v>
+        <v>1838</v>
       </c>
       <c r="F185">
-        <v>26228</v>
-      </c>
-      <c r="G185">
-        <v>1216.310942049895</v>
+        <v>0.08792431862128063</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -5750,18 +5193,15 @@
         </is>
       </c>
       <c r="E186">
-        <v>0.01982450438739031</v>
+        <v>137</v>
       </c>
       <c r="F186">
-        <v>3077</v>
-      </c>
-      <c r="G186">
-        <v>148.3061199545627</v>
+        <v>0.05024822438089593</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -5779,18 +5219,15 @@
         </is>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F187">
-        <v>110</v>
-      </c>
-      <c r="G187">
-        <v>5.663640021812171</v>
+        <v>0.031166423758989</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -5808,18 +5245,15 @@
         </is>
       </c>
       <c r="E188">
-        <v>0.08032163614910633</v>
+        <v>2882</v>
       </c>
       <c r="F188">
-        <v>22883</v>
-      </c>
-      <c r="G188">
-        <v>1199.505201898515</v>
+        <v>0.1271419683088884</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -5837,18 +5271,15 @@
         </is>
       </c>
       <c r="E189">
-        <v>0.04884135472370767</v>
+        <v>15</v>
       </c>
       <c r="F189">
-        <v>2805</v>
-      </c>
-      <c r="G189">
-        <v>146.4948774460936</v>
+        <v>0.2779406907748649</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -5866,27 +5297,24 @@
         </is>
       </c>
       <c r="E190">
-        <v>0.03125</v>
+        <v>20</v>
       </c>
       <c r="F190">
-        <v>96</v>
-      </c>
-      <c r="G190">
-        <v>4.927177473437041</v>
+        <v>0.1740672079836741</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5895,76 +5323,67 @@
         </is>
       </c>
       <c r="E191">
-        <v>0.1271227559437166</v>
+        <v>3261</v>
       </c>
       <c r="F191">
-        <v>24917</v>
-      </c>
-      <c r="G191">
-        <v>1346.673788762651</v>
+        <v>0.2977136580154698</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E192">
-        <v>0.2027027027027027</v>
+        <v>142</v>
       </c>
       <c r="F192">
-        <v>82</v>
-      </c>
-      <c r="G192">
-        <v>5.251107728108764</v>
+        <v>0.5232952099360327</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E193">
-        <v>0.1739130434782609</v>
+        <v>4041</v>
       </c>
       <c r="F193">
-        <v>130</v>
-      </c>
-      <c r="G193">
-        <v>8.452151499222964</v>
+        <v>0.3247942952306867</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -5978,22 +5397,19 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E194">
-        <v>0.2908231516989209</v>
+        <v>176</v>
       </c>
       <c r="F194">
-        <v>11549</v>
-      </c>
-      <c r="G194">
-        <v>266.5078588854522</v>
+        <v>0.4828835568676872</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -6007,22 +5423,19 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E195">
-        <v>0.505338078291815</v>
+        <v>3549</v>
       </c>
       <c r="F195">
-        <v>300</v>
-      </c>
-      <c r="G195">
-        <v>7.939399985596538</v>
+        <v>0.4718029854682742</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -6036,22 +5449,19 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E196">
-        <v>0.3072536496350365</v>
+        <v>136</v>
       </c>
       <c r="F196">
-        <v>13517</v>
-      </c>
-      <c r="G196">
-        <v>274.5496478043497</v>
+        <v>0.6114518292006197</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -6065,22 +5475,19 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E197">
-        <v>0.4769647696476965</v>
+        <v>4086</v>
       </c>
       <c r="F197">
-        <v>382</v>
-      </c>
-      <c r="G197">
-        <v>8.782489964738488</v>
+        <v>0.4456280408179821</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -6094,60 +5501,54 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E198">
-        <v>0.4379318854886476</v>
+        <v>166</v>
       </c>
       <c r="F198">
-        <v>8195</v>
-      </c>
-      <c r="G198">
-        <v>277.5595225840807</v>
+        <v>0.6708038555985751</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E199">
-        <v>0.5887445887445888</v>
+        <v>322</v>
       </c>
       <c r="F199">
-        <v>233</v>
-      </c>
-      <c r="G199">
-        <v>8.537500087171793</v>
+        <v>0.04755745628390499</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -6156,27 +5557,24 @@
         </is>
       </c>
       <c r="E200">
-        <v>0.411978221415608</v>
+        <v>173</v>
       </c>
       <c r="F200">
-        <v>9997</v>
-      </c>
-      <c r="G200">
-        <v>289.0654963031411</v>
+        <v>0.04738356457121141</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6185,18 +5583,15 @@
         </is>
       </c>
       <c r="E201">
-        <v>0.6311787072243346</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>266</v>
-      </c>
-      <c r="G201">
-        <v>9.388531945645809</v>
+        <v>0.01747806525647226</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -6214,18 +5609,15 @@
         </is>
       </c>
       <c r="E202">
-        <v>0.04539047082041162</v>
+        <v>210</v>
       </c>
       <c r="F202">
-        <v>7098</v>
-      </c>
-      <c r="G202">
-        <v>887.774140172638</v>
+        <v>0.05696104347863742</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -6243,18 +5635,15 @@
         </is>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F203">
-        <v>116</v>
-      </c>
-      <c r="G203">
-        <v>16.13078014925122</v>
+        <v>0.03900062828595683</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -6272,18 +5661,15 @@
         </is>
       </c>
       <c r="E204">
-        <v>0.04418901660280971</v>
+        <v>556</v>
       </c>
       <c r="F204">
-        <v>3916</v>
-      </c>
-      <c r="G204">
-        <v>888.5570397824049</v>
+        <v>0.1378377309955862</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -6301,27 +5687,24 @@
         </is>
       </c>
       <c r="E205">
-        <v>0.01265822784810127</v>
+        <v>7</v>
       </c>
       <c r="F205">
-        <v>79</v>
-      </c>
-      <c r="G205">
-        <v>17.88641988486052</v>
+        <v>0.06572980151758023</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6330,27 +5713,24 @@
         </is>
       </c>
       <c r="E206">
-        <v>0.05162241887905605</v>
+        <v>928</v>
       </c>
       <c r="F206">
-        <v>4071</v>
-      </c>
-      <c r="G206">
-        <v>864.7676899228245</v>
+        <v>0.09824557348053159</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6359,27 +5739,24 @@
         </is>
       </c>
       <c r="E207">
-        <v>0.0396039603960396</v>
+        <v>3</v>
       </c>
       <c r="F207">
-        <v>101</v>
-      </c>
-      <c r="G207">
-        <v>20.69941000267863</v>
+        <v>0.06773144264143159</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6388,27 +5765,24 @@
         </is>
       </c>
       <c r="E208">
-        <v>0.1352140077821012</v>
+        <v>1003</v>
       </c>
       <c r="F208">
-        <v>4129</v>
-      </c>
-      <c r="G208">
-        <v>842.8796309940517</v>
+        <v>0.1168459557067059</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6417,18 +5791,15 @@
         </is>
       </c>
       <c r="E209">
-        <v>0.07000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F209">
-        <v>101</v>
-      </c>
-      <c r="G209">
-        <v>22.53363279253244</v>
+        <v>0.1014904228048469</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -6446,18 +5817,15 @@
         </is>
       </c>
       <c r="E210">
-        <v>0.09240266852534103</v>
+        <v>2260</v>
       </c>
       <c r="F210">
-        <v>10043</v>
-      </c>
-      <c r="G210">
-        <v>237.2855003499426</v>
+        <v>0.2579529139604112</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -6475,18 +5843,15 @@
         </is>
       </c>
       <c r="E211">
-        <v>0.1111111111111111</v>
+        <v>2</v>
       </c>
       <c r="F211">
-        <v>27</v>
-      </c>
-      <c r="G211">
-        <v>0.8452499937266111</v>
+        <v>0.5704225331790224</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -6504,18 +5869,15 @@
         </is>
       </c>
       <c r="E212">
-        <v>0.1084676111171191</v>
+        <v>1426</v>
       </c>
       <c r="F212">
-        <v>9247</v>
-      </c>
-      <c r="G212">
-        <v>253.8962503196672</v>
+        <v>0.2907579937510261</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -6533,27 +5895,24 @@
         </is>
       </c>
       <c r="E213">
-        <v>0.07142857142857142</v>
+        <v>7</v>
       </c>
       <c r="F213">
-        <v>14</v>
-      </c>
-      <c r="G213">
-        <v>0.3522500023245811</v>
+        <v>0.6101427521851888</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -6562,27 +5921,24 @@
         </is>
       </c>
       <c r="E214">
-        <v>0.2370712262666527</v>
+        <v>17449</v>
       </c>
       <c r="F214">
-        <v>9533</v>
-      </c>
-      <c r="G214">
-        <v>260.1405003615655</v>
+        <v>0.3544898855460105</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -6591,27 +5947,24 @@
         </is>
       </c>
       <c r="E215">
-        <v>0.6666666666666666</v>
+        <v>55</v>
       </c>
       <c r="F215">
-        <v>3</v>
-      </c>
-      <c r="G215">
-        <v>0.071000000461936</v>
+        <v>0.339782725693995</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -6620,27 +5973,24 @@
         </is>
       </c>
       <c r="E216">
-        <v>0.2704342878816613</v>
+        <v>16827</v>
       </c>
       <c r="F216">
-        <v>5273</v>
-      </c>
-      <c r="G216">
-        <v>268.3517537638545</v>
+        <v>0.3692938037184145</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -6649,18 +5999,15 @@
         </is>
       </c>
       <c r="E217">
-        <v>0.6363636363636364</v>
+        <v>44</v>
       </c>
       <c r="F217">
-        <v>11</v>
-      </c>
-      <c r="G217">
-        <v>0.4478388018906116</v>
+        <v>0.2030139824401266</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -6678,18 +6025,15 @@
         </is>
       </c>
       <c r="E218">
-        <v>0.3719438108839767</v>
+        <v>17689</v>
       </c>
       <c r="F218">
-        <v>47427</v>
-      </c>
-      <c r="G218">
-        <v>8662.222068874165</v>
+        <v>0.3972147573104525</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -6707,18 +6051,15 @@
         </is>
       </c>
       <c r="E219">
-        <v>0.3235294117647059</v>
+        <v>38</v>
       </c>
       <c r="F219">
-        <v>170</v>
-      </c>
-      <c r="G219">
-        <v>36.48560989275575</v>
+        <v>0.2566041085608068</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -6736,18 +6077,15 @@
         </is>
       </c>
       <c r="E220">
-        <v>0.3891625615763547</v>
+        <v>24521</v>
       </c>
       <c r="F220">
-        <v>43497</v>
-      </c>
-      <c r="G220">
-        <v>8909.34333838895</v>
+        <v>0.5418016793101805</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -6765,27 +6103,24 @@
         </is>
       </c>
       <c r="E221">
-        <v>0.2588235294117647</v>
+        <v>72</v>
       </c>
       <c r="F221">
-        <v>170</v>
-      </c>
-      <c r="G221">
-        <v>35.87545997090638</v>
+        <v>0.4897765085216367</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -6794,105 +6129,93 @@
         </is>
       </c>
       <c r="E222">
-        <v>0.4212770011193408</v>
+        <v>13617</v>
       </c>
       <c r="F222">
-        <v>42556</v>
-      </c>
-      <c r="G222">
-        <v>8910.532308382448</v>
+        <v>0.1370223893262339</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E223">
-        <v>0.319327731092437</v>
+        <v>429</v>
       </c>
       <c r="F223">
-        <v>119</v>
-      </c>
-      <c r="G223">
-        <v>28.59697007015347</v>
+        <v>0.1450845302584052</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E224">
-        <v>0.5273446740790124</v>
+        <v>58</v>
       </c>
       <c r="F224">
-        <v>72275</v>
-      </c>
-      <c r="G224">
-        <v>9090.976425154135</v>
+        <v>0.04579264174341589</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E225">
-        <v>0.4768211920529801</v>
+        <v>12482</v>
       </c>
       <c r="F225">
-        <v>236</v>
-      </c>
-      <c r="G225">
-        <v>35.37367300316691</v>
+        <v>0.1410777358267953</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -6906,22 +6229,19 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E226">
-        <v>0.1319911598782545</v>
+        <v>391</v>
       </c>
       <c r="F226">
-        <v>103166</v>
-      </c>
-      <c r="G226">
-        <v>15445.2325108666</v>
+        <v>0.1542173681928965</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -6935,22 +6255,19 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E227">
-        <v>0.1508969398522687</v>
+        <v>47</v>
       </c>
       <c r="F227">
-        <v>2843</v>
-      </c>
-      <c r="G227">
-        <v>421.2038996573538</v>
+        <v>0.03747643805767121</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -6964,22 +6281,19 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E228">
-        <v>0.03991741225051618</v>
+        <v>18309</v>
       </c>
       <c r="F228">
-        <v>1453</v>
-      </c>
-      <c r="G228">
-        <v>214.1625723354518</v>
+        <v>0.1815785102787397</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -6993,22 +6307,19 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E229">
-        <v>0.1332095366160808</v>
+        <v>625</v>
       </c>
       <c r="F229">
-        <v>93702</v>
-      </c>
-      <c r="G229">
-        <v>15460.5068003349</v>
+        <v>0.1719542578985972</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -7022,22 +6333,19 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E230">
-        <v>0.1553436630909813</v>
+        <v>47</v>
       </c>
       <c r="F230">
-        <v>2517</v>
-      </c>
-      <c r="G230">
-        <v>407.8334751594812</v>
+        <v>0.03225494273409887</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -7051,22 +6359,19 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E231">
-        <v>0.03359542530378842</v>
+        <v>15991</v>
       </c>
       <c r="F231">
-        <v>1399</v>
-      </c>
-      <c r="G231">
-        <v>232.4099601935595</v>
+        <v>0.1564899592558511</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -7080,22 +6385,19 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E232">
-        <v>0.1761429231124452</v>
+        <v>1081</v>
       </c>
       <c r="F232">
-        <v>103944</v>
-      </c>
-      <c r="G232">
-        <v>15305.24497530703</v>
+        <v>0.1383505616055245</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -7109,138 +6411,123 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E233">
-        <v>0.1794430089003732</v>
+        <v>39</v>
       </c>
       <c r="F233">
-        <v>3483</v>
-      </c>
-      <c r="G233">
-        <v>541.6124678188935</v>
+        <v>0.03046088479670108</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E234">
-        <v>0.03223593964334705</v>
+        <v>9056</v>
       </c>
       <c r="F234">
-        <v>1458</v>
-      </c>
-      <c r="G234">
-        <v>228.8245400991291</v>
+        <v>0.1452654897140774</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E235">
-        <v>0.1538957539361743</v>
+        <v>422</v>
       </c>
       <c r="F235">
-        <v>103908</v>
-      </c>
-      <c r="G235">
-        <v>15037.82020519953</v>
+        <v>0.1952876625348089</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E236">
-        <v>0.1515278945892907</v>
+        <v>27</v>
       </c>
       <c r="F236">
-        <v>7134</v>
-      </c>
-      <c r="G236">
-        <v>1206.711539003067</v>
+        <v>0.07655899758333529</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E237">
-        <v>0.03009259259259259</v>
+        <v>9046</v>
       </c>
       <c r="F237">
-        <v>1296</v>
-      </c>
-      <c r="G237">
-        <v>208.120070150122</v>
+        <v>0.1530795636513503</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -7254,22 +6541,19 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E238">
-        <v>0.1374683121575057</v>
+        <v>424</v>
       </c>
       <c r="F238">
-        <v>65877</v>
-      </c>
-      <c r="G238">
-        <v>4639.836335995235</v>
+        <v>0.2264471975686265</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -7283,22 +6567,19 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E239">
-        <v>0.194201564657156</v>
+        <v>44</v>
       </c>
       <c r="F239">
-        <v>2173</v>
-      </c>
-      <c r="G239">
-        <v>177.584170082584</v>
+        <v>0.1315484150332664</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -7312,22 +6593,19 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E240">
-        <v>0.08385093167701864</v>
+        <v>10061</v>
       </c>
       <c r="F240">
-        <v>322</v>
-      </c>
-      <c r="G240">
-        <v>28.00157495029271</v>
+        <v>0.2205215293557116</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -7341,22 +6619,19 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E241">
-        <v>0.1432417025589055</v>
+        <v>460</v>
       </c>
       <c r="F241">
-        <v>63152</v>
-      </c>
-      <c r="G241">
-        <v>4689.456682784017</v>
+        <v>0.315674539297747</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -7370,22 +6645,19 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E242">
-        <v>0.2131724484665661</v>
+        <v>36</v>
       </c>
       <c r="F242">
-        <v>1989</v>
-      </c>
-      <c r="G242">
-        <v>175.6980673065409</v>
+        <v>0.1893245277083596</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -7399,22 +6671,19 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E243">
-        <v>0.1313432835820895</v>
+        <v>2552</v>
       </c>
       <c r="F243">
-        <v>335</v>
-      </c>
-      <c r="G243">
-        <v>29.12393503449857</v>
+        <v>0.2544537992716875</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -7428,22 +6697,19 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E244">
-        <v>0.1982306813256098</v>
+        <v>170</v>
       </c>
       <c r="F244">
-        <v>50754</v>
-      </c>
-      <c r="G244">
-        <v>4593.861777726561</v>
+        <v>0.3910117904422853</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -7457,138 +6723,123 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E245">
-        <v>0.2946828955797566</v>
+        <v>6</v>
       </c>
       <c r="F245">
-        <v>1561</v>
-      </c>
-      <c r="G245">
-        <v>178.6579151344486</v>
+        <v>0.09422861536954556</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E246">
-        <v>0.1607142857142857</v>
+        <v>645</v>
       </c>
       <c r="F246">
-        <v>224</v>
-      </c>
-      <c r="G246">
-        <v>25.73061998840421</v>
+        <v>0.00755619927121347</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E247">
-        <v>0.2234089118445242</v>
+        <v>2</v>
       </c>
       <c r="F247">
-        <v>11423</v>
-      </c>
-      <c r="G247">
-        <v>4534.063212128356</v>
+        <v>0.001924552489485813</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E248">
-        <v>0.3578947368421053</v>
+        <v>40</v>
       </c>
       <c r="F248">
-        <v>475</v>
-      </c>
-      <c r="G248">
-        <v>206.1380461268127</v>
+        <v>0.02458048616869131</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E249">
-        <v>0.08695652173913043</v>
+        <v>1057</v>
       </c>
       <c r="F249">
-        <v>69</v>
-      </c>
-      <c r="G249">
-        <v>31.74675834551454</v>
+        <v>0.01403685482108651</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -7602,22 +6853,19 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E250">
-        <v>0.007189032545697726</v>
+        <v>24</v>
       </c>
       <c r="F250">
-        <v>89720</v>
-      </c>
-      <c r="G250">
-        <v>7757.043307432905</v>
+        <v>0.0154866897598658</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -7631,22 +6879,19 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E251">
-        <v>0.0014194464158978</v>
+        <v>36</v>
       </c>
       <c r="F251">
-        <v>1409</v>
-      </c>
-      <c r="G251">
-        <v>114.3473624493927</v>
+        <v>0.02665434397981367</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -7660,22 +6905,19 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E252">
-        <v>0.02427184466019417</v>
+        <v>2178</v>
       </c>
       <c r="F252">
-        <v>1648</v>
-      </c>
-      <c r="G252">
-        <v>129.1690275017172</v>
+        <v>0.03418267315430564</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -7689,22 +6931,19 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E253">
-        <v>0.01215361618949063</v>
+        <v>39</v>
       </c>
       <c r="F253">
-        <v>86970</v>
-      </c>
-      <c r="G253">
-        <v>7739.55144495517</v>
+        <v>0.0221556906292211</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -7718,22 +6957,19 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E254">
-        <v>0.01443174984966927</v>
+        <v>11</v>
       </c>
       <c r="F254">
-        <v>1663</v>
-      </c>
-      <c r="G254">
-        <v>143.4449524078518</v>
+        <v>0.006299345333084756</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -7747,22 +6983,19 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E255">
-        <v>0.02140309155766944</v>
+        <v>4475</v>
       </c>
       <c r="F255">
-        <v>1682</v>
-      </c>
-      <c r="G255">
-        <v>148.7859724219888</v>
+        <v>0.06951728151943562</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -7776,22 +7009,19 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E256">
-        <v>0.02664578720072426</v>
+        <v>73</v>
       </c>
       <c r="F256">
-        <v>81739</v>
-      </c>
-      <c r="G256">
-        <v>7609.171291461214</v>
+        <v>0.03846482908627997</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -7805,138 +7035,123 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E257">
-        <v>0.02154696132596685</v>
+        <v>27</v>
       </c>
       <c r="F257">
-        <v>1810</v>
-      </c>
-      <c r="G257">
-        <v>166.9749352950603</v>
+        <v>0.01949871968966229</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E258">
-        <v>0.007686932215234102</v>
+        <v>34394</v>
       </c>
       <c r="F258">
-        <v>1431</v>
-      </c>
-      <c r="G258">
-        <v>129.3634450566024</v>
+        <v>0.3461911408540371</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E259">
-        <v>0.05731448039140347</v>
+        <v>2554</v>
       </c>
       <c r="F259">
-        <v>78078</v>
-      </c>
-      <c r="G259">
-        <v>7219.134659511968</v>
+        <v>0.4307199900065753</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E260">
-        <v>0.03694331983805668</v>
+        <v>222</v>
       </c>
       <c r="F260">
-        <v>1976</v>
-      </c>
-      <c r="G260">
-        <v>174.461315471679</v>
+        <v>0.3500470137915242</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E261">
-        <v>0.01863354037267081</v>
+        <v>24529</v>
       </c>
       <c r="F261">
-        <v>1449</v>
-      </c>
-      <c r="G261">
-        <v>127.9489082917571</v>
+        <v>0.3719070756116751</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -7950,22 +7165,19 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E262">
-        <v>0.3389974176506535</v>
+        <v>1805</v>
       </c>
       <c r="F262">
-        <v>101566</v>
-      </c>
-      <c r="G262">
-        <v>4764.224890406709</v>
+        <v>0.4499529986805896</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -7979,22 +7191,19 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E263">
-        <v>0.4300387270584273</v>
+        <v>185</v>
       </c>
       <c r="F263">
-        <v>5952</v>
-      </c>
-      <c r="G263">
-        <v>283.9896574160084</v>
+        <v>0.4024425218736223</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -8008,22 +7217,19 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E264">
-        <v>0.3512658227848101</v>
+        <v>25077</v>
       </c>
       <c r="F264">
-        <v>636</v>
-      </c>
-      <c r="G264">
-        <v>38.05186000373214</v>
+        <v>0.325127970959558</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -8037,22 +7243,19 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E265">
-        <v>0.3699698340874811</v>
+        <v>2136</v>
       </c>
       <c r="F265">
-        <v>66371</v>
-      </c>
-      <c r="G265">
-        <v>4785.635248420294</v>
+        <v>0.4719626834797209</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -8066,22 +7269,19 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E266">
-        <v>0.4603417495536853</v>
+        <v>200</v>
       </c>
       <c r="F266">
-        <v>3924</v>
-      </c>
-      <c r="G266">
-        <v>289.1263150349259</v>
+        <v>0.3495285543991887</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -8095,22 +7295,19 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E267">
-        <v>0.3952991452991453</v>
+        <v>25734</v>
       </c>
       <c r="F267">
-        <v>469</v>
-      </c>
-      <c r="G267">
-        <v>42.71917505376041</v>
+        <v>0.4493343844880139</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -8124,22 +7321,19 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E268">
-        <v>0.3316493195614511</v>
+        <v>2017</v>
       </c>
       <c r="F268">
-        <v>75736</v>
-      </c>
-      <c r="G268">
-        <v>4726.536154001951</v>
+        <v>0.5592344946863723</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -8153,138 +7347,123 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E269">
-        <v>0.4885635864592864</v>
+        <v>200</v>
       </c>
       <c r="F269">
-        <v>4386</v>
-      </c>
-      <c r="G269">
-        <v>278.9599199099466</v>
+        <v>0.5237899676667386</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E270">
-        <v>0.3502626970227671</v>
+        <v>4715</v>
       </c>
       <c r="F270">
-        <v>573</v>
-      </c>
-      <c r="G270">
-        <v>43.29975996352732</v>
+        <v>0.1817452872372586</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E271">
-        <v>0.4729297607233433</v>
+        <v>239</v>
       </c>
       <c r="F271">
-        <v>55301</v>
-      </c>
-      <c r="G271">
-        <v>4748.655703946948</v>
+        <v>0.1895655370052608</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E272">
-        <v>0.5899385785317344</v>
+        <v>19</v>
       </c>
       <c r="F272">
-        <v>3465</v>
-      </c>
-      <c r="G272">
-        <v>299.3238329198211</v>
+        <v>0.03952109226227662</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E273">
-        <v>0.5376344086021505</v>
+        <v>4491</v>
       </c>
       <c r="F273">
-        <v>377</v>
-      </c>
-      <c r="G273">
-        <v>42.60456491447985</v>
+        <v>0.178581127888763</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -8298,22 +7477,19 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E274">
-        <v>0.1756706408345753</v>
+        <v>288</v>
       </c>
       <c r="F274">
-        <v>26840</v>
-      </c>
-      <c r="G274">
-        <v>885.1327174357139</v>
+        <v>0.218156443496311</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -8327,22 +7503,19 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E275">
-        <v>0.1784914115011202</v>
+        <v>20</v>
       </c>
       <c r="F275">
-        <v>1339</v>
-      </c>
-      <c r="G275">
-        <v>46.84021255117841</v>
+        <v>0.04875312953257366</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -8356,22 +7529,19 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E276">
-        <v>0.03044871794871795</v>
+        <v>4927</v>
       </c>
       <c r="F276">
-        <v>624</v>
-      </c>
-      <c r="G276">
-        <v>21.60144002595916</v>
+        <v>0.2016616125440161</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -8385,22 +7555,19 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E277">
-        <v>0.1774397471355195</v>
+        <v>359</v>
       </c>
       <c r="F277">
-        <v>25310</v>
-      </c>
-      <c r="G277">
-        <v>890.7484195256693</v>
+        <v>0.2379598042908119</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -8414,22 +7581,19 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E278">
-        <v>0.2021052631578947</v>
+        <v>43</v>
       </c>
       <c r="F278">
-        <v>1425</v>
-      </c>
-      <c r="G278">
-        <v>52.52416489562893</v>
+        <v>0.06265748433939043</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -8443,22 +7607,19 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E279">
-        <v>0.03289473684210526</v>
+        <v>7496</v>
       </c>
       <c r="F279">
-        <v>608</v>
-      </c>
-      <c r="G279">
-        <v>22.52250245766481</v>
+        <v>0.2328059894162279</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -8472,138 +7633,123 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E280">
-        <v>0.2000812182741117</v>
+        <v>63</v>
       </c>
       <c r="F280">
-        <v>24625</v>
-      </c>
-      <c r="G280">
-        <v>880.2846525167115</v>
+        <v>0.08445960023316776</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E281">
-        <v>0.2382216323822163</v>
+        <v>3079</v>
       </c>
       <c r="F281">
-        <v>1507</v>
-      </c>
-      <c r="G281">
-        <v>57.04937246162444</v>
+        <v>0.09456458785051119</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E282">
-        <v>0.07239057239057239</v>
+        <v>126</v>
       </c>
       <c r="F282">
-        <v>594</v>
-      </c>
-      <c r="G282">
-        <v>23.67003752756864</v>
+        <v>0.08057379903672535</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E283">
-        <v>0.2339867648894993</v>
+        <v>58</v>
       </c>
       <c r="F283">
-        <v>32036</v>
-      </c>
-      <c r="G283">
-        <v>930.8438572715968</v>
+        <v>0.02997808023896678</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E284">
-        <v>0.07924528301886792</v>
+        <v>3217</v>
       </c>
       <c r="F284">
-        <v>795</v>
-      </c>
-      <c r="G284">
-        <v>23.0816152037587</v>
+        <v>0.09967589113865137</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -8617,22 +7763,19 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E285">
-        <v>0.09166691476376194</v>
+        <v>133</v>
       </c>
       <c r="F285">
-        <v>33923</v>
-      </c>
-      <c r="G285">
-        <v>2302.231708036736</v>
+        <v>0.08453014525852912</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -8646,22 +7789,19 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E286">
-        <v>0.07540394973070018</v>
+        <v>47</v>
       </c>
       <c r="F286">
-        <v>1677</v>
-      </c>
-      <c r="G286">
-        <v>123.8783899508417</v>
+        <v>0.02830030913467</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -8675,22 +7815,19 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E287">
-        <v>0.02862783810463969</v>
+        <v>3783</v>
       </c>
       <c r="F287">
-        <v>2046</v>
-      </c>
-      <c r="G287">
-        <v>139.3705827780068</v>
+        <v>0.119118488202033</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -8704,22 +7841,19 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E288">
-        <v>0.09624244600011966</v>
+        <v>165</v>
       </c>
       <c r="F288">
-        <v>33719</v>
-      </c>
-      <c r="G288">
-        <v>2332.496405255049</v>
+        <v>0.1158813541895994</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -8733,22 +7867,19 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E289">
-        <v>0.083125</v>
+        <v>57</v>
       </c>
       <c r="F289">
-        <v>1608</v>
-      </c>
-      <c r="G289">
-        <v>120.3978176340461</v>
+        <v>0.0368747701599363</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -8762,22 +7893,19 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>Other country</t>
+          <t>Region of residence</t>
         </is>
       </c>
       <c r="E290">
-        <v>0.02520107238605898</v>
+        <v>4764</v>
       </c>
       <c r="F290">
-        <v>1874</v>
-      </c>
-      <c r="G290">
-        <v>128.628895111382</v>
+        <v>0.1545061836285579</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -8791,22 +7919,19 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Region of residence</t>
+          <t>Other region in country of residence</t>
         </is>
       </c>
       <c r="E291">
-        <v>0.1186265286923801</v>
+        <v>272</v>
       </c>
       <c r="F291">
-        <v>32429</v>
-      </c>
-      <c r="G291">
-        <v>2296.252865752205</v>
+        <v>0.1932149051750802</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -8820,133 +7945,14 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Other region in country of residence</t>
+          <t>Other country</t>
         </is>
       </c>
       <c r="E292">
-        <v>0.1109616677874916</v>
+        <v>31</v>
       </c>
       <c r="F292">
-        <v>1510</v>
-      </c>
-      <c r="G292">
-        <v>111.8777701072395</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293">
-        <v>2020</v>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Other country</t>
-        </is>
-      </c>
-      <c r="E293">
-        <v>0.03341148886283705</v>
-      </c>
-      <c r="F293">
-        <v>1760</v>
-      </c>
-      <c r="G293">
-        <v>121.940082449466</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294">
-        <v>2021</v>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Region of residence</t>
-        </is>
-      </c>
-      <c r="E294">
-        <v>0.1529226719738067</v>
-      </c>
-      <c r="F294">
-        <v>31153</v>
-      </c>
-      <c r="G294">
-        <v>2333.991070855409</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295">
-        <v>2021</v>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Other region in country of residence</t>
-        </is>
-      </c>
-      <c r="E295">
-        <v>0.186556927297668</v>
-      </c>
-      <c r="F295">
-        <v>1458</v>
-      </c>
-      <c r="G295">
-        <v>111.9975799331442</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296">
-        <v>2021</v>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Slovakia</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Other country</t>
-        </is>
-      </c>
-      <c r="E296">
-        <v>0.05236486486486486</v>
-      </c>
-      <c r="F296">
-        <v>592</v>
-      </c>
-      <c r="G296">
-        <v>42.00867948727682</v>
+        <v>0.04869273251037039</v>
       </c>
     </row>
   </sheetData>
